--- a/SDP.xlsx
+++ b/SDP.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="60">
-  <si>
-    <t>Request catalog mới</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="61">
   <si>
     <t>SLA đề xuất</t>
   </si>
@@ -204,6 +201,12 @@
   </si>
   <si>
     <t>Allow/Deny Connection Internet Public</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -227,7 +230,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -436,6 +438,9 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -463,38 +468,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="97" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -792,671 +794,673 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="1" t="s">
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="2" t="s">
+    </row>
+    <row r="20" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="2" t="s">
+    <row r="39" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="4" t="s">
+      <c r="G39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="9" t="s">
+    <row r="40" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="21" t="s">
+      <c r="D40" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="E40" s="10"/>
+      <c r="F40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
